--- a/src/citygml/BuildingFunctions.xlsx
+++ b/src/citygml/BuildingFunctions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Programmieren\TECDEM\src\citygml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723EDECE-5CB9-405E-B088-A3271D79802E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BC4492-AC6B-426D-902D-AB2BD9074205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-21600" windowWidth="19410" windowHeight="20985" xr2:uid="{9EC583D5-D17F-4F3A-980D-549DFCC94CA7}"/>
   </bookViews>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C846499-CA76-4572-AE65-C925B1199D3D}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
